--- a/tools/excel/adobe/mappings/mapping-adobe-ccf-v5-to-fedramp-rev5.xlsx
+++ b/tools/excel/adobe/mappings/mapping-adobe-ccf-v5-to-fedramp-rev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\adobe\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E886FF-5CF3-4215-9F9B-B696AA1334D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78FAA9-E4D5-45C7-BF34-8175D40ADC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="-12960" windowWidth="20865" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12081,9 +12081,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12392,100 +12391,100 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>3717</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3731</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3732</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3733</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3734</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3735</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3720</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3721</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>3722</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>3736</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3737</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>3738</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3737</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>3739</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>3741</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3742</v>
       </c>
     </row>
